--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Parameter</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Fraction of fungi ou out the total biomass of soil microbes</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>2.8</t>
   </si>
 </sst>
 </file>
@@ -426,24 +429,24 @@
         <v>1.9670007986091e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.6</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Parameter</t>
   </si>
@@ -34,16 +34,13 @@
     <t>Fraction of fungi ou out the total biomass of soil microbes</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>2.8</t>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -429,24 +426,24 @@
         <v>1.9670007986091e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.9670007986091e+16</v>
+        <v>1.967000798609098e+16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Parameter</t>
   </si>
@@ -34,13 +34,19 @@
     <t>Fraction of fungi ou out the total biomass of soil microbes</t>
   </si>
   <si>
+    <t>Biomass of marine fungi</t>
+  </si>
+  <si>
     <t>g C</t>
   </si>
   <si>
     <t>Unitless</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>Gt C</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.967000798609098e+16</v>
+        <v>1.9670007986091e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,10 +446,24 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>2.9</v>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>261576337635796</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>261576337635796</v>
+        <v>326597523229418</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>326597523229418</v>
+        <v>324820149643526.1</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -46,7 +46,7 @@
     <t>Gt C</t>
   </si>
   <si>
-    <t>10.0</t>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -457,12 +457,12 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>324820149643526.1</v>
+        <v>324820149643526</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
         <v>10</v>
       </c>
     </row>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Biomass of marine fungi</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
     <t>g C</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>Gt C</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>2.8</t>
   </si>
 </sst>
 </file>
@@ -432,24 +435,24 @@
         <v>1.9670007986091e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.6</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2.8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,7 +463,7 @@
         <v>324820149643526</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>10</v>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Biomass of marine fungi</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>g C</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>Gt C</t>
   </si>
   <si>
-    <t>2.8</t>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -435,24 +432,24 @@
         <v>1.9670007986091e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,7 +460,7 @@
         <v>324820149643526</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>10</v>

--- a/fungi/fungi_biomass_estimate.xlsx
+++ b/fungi/fungi_biomass_estimate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Biomass of marine fungi</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>g C</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>Gt C</t>
   </si>
   <si>
-    <t>2.8</t>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -432,27 +429,27 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.9670007986091e+16</v>
+        <v>1.967000798609098e+16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,10 +457,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>324820149643526</v>
+        <v>324820149643526.4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>10</v>
